--- a/misc/Prep_record/template.xlsx
+++ b/misc/Prep_record/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Journal\misc\Prep_record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1E7EAE-2218-4ABA-A221-7733C1FCDC17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBAA52E-8259-40D9-8699-0D2F9E750DAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="23505" windowHeight="13935" xr2:uid="{4EE19806-0D22-4899-8D8C-A72BB024F1CA}"/>
+    <workbookView xWindow="15510" yWindow="0" windowWidth="12735" windowHeight="13935" xr2:uid="{4EE19806-0D22-4899-8D8C-A72BB024F1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>split</t>
   </si>
   <si>
-    <t>end_point</t>
+    <t>gender</t>
   </si>
 </sst>
 </file>
@@ -394,13 +394,10 @@
   <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
